--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3473.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3473.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.034353331396695</v>
+        <v>0.8268491625785828</v>
       </c>
       <c r="B1">
-        <v>1.500047087954449</v>
+        <v>1.284665465354919</v>
       </c>
       <c r="C1">
-        <v>2.965825377599634</v>
+        <v>4.593391418457031</v>
       </c>
       <c r="D1">
-        <v>7.656300897812952</v>
+        <v>4.051531314849854</v>
       </c>
       <c r="E1">
-        <v>2.055801912244875</v>
+        <v>0.5496358275413513</v>
       </c>
     </row>
   </sheetData>
